--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1015046.346327367</v>
+        <v>1012467.133109687</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>126.5112590567467</v>
+        <v>18.09783716712604</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>140.04720552222</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.04850317047597</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>35.11773277698988</v>
       </c>
       <c r="F5" t="n">
-        <v>183.0901349234351</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>15.08660049982279</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -1111,10 +1111,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>38.38400101269283</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>302.1593469465779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>294.9161656660179</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>19.43067666914876</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>174.0280920178097</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329724</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1427,13 +1427,13 @@
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>197.8638354969249</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>74.77833593641576</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.1004521009499</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793541</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>63.49327213205595</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
-        <v>20.67756722602948</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892437</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.04917322725637</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046969</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>13.79222725775186</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>77.9361200972557</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833785</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.825382616191043</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>200.8308082455005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1460.484938830938</v>
+        <v>1283.306917621955</v>
       </c>
       <c r="C2" t="n">
-        <v>1332.695788268567</v>
+        <v>1265.026274018797</v>
       </c>
       <c r="D2" t="n">
-        <v>974.430089661817</v>
+        <v>1265.026274018797</v>
       </c>
       <c r="E2" t="n">
-        <v>974.430089661817</v>
+        <v>879.2380214205527</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722093</v>
+        <v>468.2521166309451</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764048</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>1130.750820924048</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1436.225927159631</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779525</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4358,22 +4358,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>2046.912007858846</v>
       </c>
       <c r="W2" t="n">
-        <v>2237.224110870871</v>
+        <v>2046.912007858846</v>
       </c>
       <c r="X2" t="n">
-        <v>2237.224110870871</v>
+        <v>1673.446249597766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1847.08477889506</v>
+        <v>1283.306917621955</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093821</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1082.63379747026</v>
+        <v>874.6572826117733</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090154</v>
+        <v>1515.680492231667</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.5222156304092</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>477.5222156304092</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>477.5222156304092</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>477.5222156304092</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>336.060391870591</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1193.542248702562</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>991.0700018628636</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383072</v>
+        <v>766.6588426383016</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5222156304092</v>
+        <v>477.5222156304037</v>
       </c>
       <c r="V4" t="n">
-        <v>477.5222156304092</v>
+        <v>477.5222156304037</v>
       </c>
       <c r="W4" t="n">
-        <v>477.5222156304092</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X4" t="n">
-        <v>477.5222156304092</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.5222156304092</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.752698217159</v>
+        <v>833.4399525121057</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.790181276748</v>
+        <v>833.4399525121057</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.524482669997</v>
+        <v>475.1742539053552</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.736230071753</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477387</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>1983.644882813119</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.752698217159</v>
+        <v>1610.179124552039</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.752698217159</v>
+        <v>1220.039792576227</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>942.9699568457229</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.7760440609304</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="C7" t="n">
-        <v>219.7760440609304</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4723,52 +4723,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1631.744679750017</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1435.295013755985</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1212.360439297966</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>923.2426623083646</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>668.5581741024778</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W7" t="n">
-        <v>668.5581741024778</v>
+        <v>797.5885722746133</v>
       </c>
       <c r="X7" t="n">
-        <v>440.5686232044604</v>
+        <v>569.5990213765959</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.7760440609304</v>
+        <v>348.8064422330658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1552.641580414907</v>
+        <v>1095.862611995972</v>
       </c>
       <c r="C8" t="n">
-        <v>1183.679063474495</v>
+        <v>1095.862611995972</v>
       </c>
       <c r="D8" t="n">
-        <v>878.4676019122953</v>
+        <v>737.596913389222</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U8" t="n">
-        <v>2257.170226019558</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V8" t="n">
-        <v>1926.107338675987</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W8" t="n">
-        <v>1926.107338675987</v>
+        <v>1859.467702232864</v>
       </c>
       <c r="X8" t="n">
-        <v>1552.641580414907</v>
+        <v>1486.001943971784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1552.641580414907</v>
+        <v>1095.862611995972</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480864</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1219.783862516112</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
         <v>2445.212480716556</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.3629843811799</v>
+        <v>220.7360382507266</v>
       </c>
       <c r="C10" t="n">
-        <v>71.42680145327301</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="D10" t="n">
-        <v>71.42680145327301</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1274.748052626706</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>985.6302756371042</v>
       </c>
       <c r="V10" t="n">
-        <v>870.7935792529671</v>
+        <v>730.9457874312174</v>
       </c>
       <c r="W10" t="n">
-        <v>870.7935792529671</v>
+        <v>441.5286173942567</v>
       </c>
       <c r="X10" t="n">
-        <v>642.8040283549498</v>
+        <v>441.5286173942567</v>
       </c>
       <c r="Y10" t="n">
-        <v>422.0114492114196</v>
+        <v>220.7360382507266</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.9250181961</v>
+        <v>1535.258832689347</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648938</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>926.908550050694</v>
+        <v>512.3331043803402</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610865</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386829</v>
@@ -5048,43 +5048,43 @@
         <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234589</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604051</v>
+        <v>3369.295305604045</v>
       </c>
       <c r="V11" t="n">
-        <v>3169.432845506148</v>
+        <v>3038.232418260474</v>
       </c>
       <c r="W11" t="n">
-        <v>2816.664190236033</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>2816.664190236033</v>
+        <v>2311.99800472928</v>
       </c>
       <c r="Y11" t="n">
-        <v>2426.524858260222</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J12" t="n">
-        <v>136.7475342387968</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>417.0976040972343</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>840.385411524544</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1353.699185768433</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1895.0074931195</v>
+        <v>1955.072021259914</v>
       </c>
       <c r="O12" t="n">
-        <v>2367.979045985249</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5627329865169</v>
+        <v>203.8650582458534</v>
       </c>
       <c r="C13" t="n">
-        <v>685.0290603234706</v>
+        <v>203.8650582458533</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197099</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469177</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.45504734577</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888919</v>
+        <v>717.5002252888912</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551106</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551106</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101152</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1935.094986101152</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.410497895265</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1390.993327858304</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.003776960287</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>942.2111978167567</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,67 +5261,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072594</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061233</v>
+        <v>494.0589900220741</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937875</v>
+        <v>494.0589900220741</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113943</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F16" t="n">
-        <v>484.529420613484</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
         <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2113.21162079239</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.135407107117</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.450918901231</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.03374886427</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.03374886427</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925215</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,7 +5671,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>800.5007694647277</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557278</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278209</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229498</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859675</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,13 +6257,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,7 +6649,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630042</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>776.4664207350974</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227616</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403684</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>331.546740242458</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,19 +6859,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>481.4479471244849</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>481.4479471244849</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>481.447947124485</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>314.2518478393649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>172.540016681563</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,7 +7108,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740071</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121641</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998282</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>94.65038286230626</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>94.65038286230626</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.7243904253739</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253739</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253739</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429809</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429809</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.572155334122</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1263.154985297161</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.165434399144</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>814.3728552556137</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7816,7 +7816,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
         <v>2035.089393279802</v>
@@ -7834,7 +7834,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
         <v>1688.385853854706</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426203</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>143.3909986625128</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083451</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43.87169338513831</v>
+        <v>204.6347509527572</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.7491560325408</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>65.37844346995234</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>256.7871481632756</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243803518</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>129.88842297321</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>92.46848516221208</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726248</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863376</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.9887223307059</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G19" t="n">
-        <v>110.0033420516651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303786</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7828069546809</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409393098</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>151.731911034517</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>3.329716221309809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823132</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237448</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>51.30683507832754</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>995893.5317285974</v>
+        <v>995893.5317285972</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889956.7824767567</v>
+        <v>889956.7824767564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>968705.2216507482</v>
+        <v>968705.2216507484</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974065.4153131185</v>
+        <v>974065.4153131186</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974065.4153131186</v>
+        <v>974065.4153131185</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795044</v>
+        <v>405380.8397795038</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="K2" t="n">
-        <v>443930.6298295033</v>
-      </c>
       <c r="L2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295035</v>
@@ -26353,7 +26353,7 @@
         <v>443930.6298295035</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318590.5451569116</v>
+        <v>318590.5451569104</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051372</v>
+        <v>166521.3471051389</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83206.75751987686</v>
+        <v>83206.75751987651</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848937</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6188.359574389008</v>
       </c>
       <c r="F4" t="n">
-        <v>6280.947910469699</v>
+        <v>6280.9479104697</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695057</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26442,16 +26442,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695114</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214705</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-737240.8761621934</v>
+        <v>-737240.8761621909</v>
       </c>
       <c r="C6" t="n">
-        <v>56260.76954870601</v>
+        <v>56260.76954870333</v>
       </c>
       <c r="D6" t="n">
-        <v>229025.1293385983</v>
+        <v>229025.1293385986</v>
       </c>
       <c r="E6" t="n">
-        <v>-5491.787113943341</v>
+        <v>-5701.751357787394</v>
       </c>
       <c r="F6" t="n">
-        <v>168529.4508714717</v>
+        <v>168483.5458759044</v>
       </c>
       <c r="G6" t="n">
-        <v>325353.383238322</v>
+        <v>325318.6453128865</v>
       </c>
       <c r="H6" t="n">
-        <v>336520.6194739013</v>
+        <v>336485.8815484658</v>
       </c>
       <c r="I6" t="n">
-        <v>336520.6194739013</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="J6" t="n">
-        <v>167106.602647853</v>
+        <v>167071.8647224176</v>
       </c>
       <c r="K6" t="n">
-        <v>336520.6194739013</v>
+        <v>336485.8815484655</v>
       </c>
       <c r="L6" t="n">
-        <v>336520.6194739011</v>
+        <v>336485.8815484656</v>
       </c>
       <c r="M6" t="n">
-        <v>253313.8619540245</v>
+        <v>253279.1240285891</v>
       </c>
       <c r="N6" t="n">
-        <v>292738.2129154125</v>
+        <v>292703.4749899762</v>
       </c>
       <c r="O6" t="n">
-        <v>333497.3214966765</v>
+        <v>333462.583571241</v>
       </c>
       <c r="P6" t="n">
-        <v>336520.6194739013</v>
+        <v>336485.8815484655</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086472</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272.4638768447115</v>
+        <v>272.4638768447105</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>333.8901362734019</v>
+        <v>333.8901362734006</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173597</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>238.7616327142608</v>
+        <v>347.1750546038815</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>5.37384250071122</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.474495166115</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>346.8126372952719</v>
       </c>
       <c r="F5" t="n">
-        <v>223.7859108182764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>86.01354812072162</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>248.1389973238982</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>52.52369467410506</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>87.01420440624383</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>127.0032859774204</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>46.67713669562877</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>5.195174274024853e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,25 +31522,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31549,7 +31549,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31601,22 +31601,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31710,10 +31710,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>185.6623418324292</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.632795784533</v>
+        <v>660.6327957845325</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>179.5642660017257</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205467</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>427.3161054158215</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741274</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>442.4521770035238</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>310.4772807543179</v>
+        <v>471.240338321935</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>532.7551050146878</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>253.9254024630965</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>626.7930971454226</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297623</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35346,10 +35346,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>58.82471516576254</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>36.96802155728123</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062165</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>295.9743933324882</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
